--- a/biology/Botanique/Conyza_varia/Conyza_varia.xlsx
+++ b/biology/Botanique/Conyza_varia/Conyza_varia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conyza varia  est une espèce de plantes à fleurs de la famille des Asteraceae. C'est une espèce endémique du Cap-Vert, qui était autrefois très répandue dans les petites vallées et les zones escarpées des îles de Santo Antão, São Vicente (éteinte), São Nicolau, Fogo,  et Brava. Elle est aujourd'hui menacée[1].
-Localement elle est connue sous le nom de « marcelinha »[1].
-En médecine traditionnelle, les feuilles écrasées et humectées sont utilisées comme emplâtre pour soigner les inflammations externes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conyza varia  est une espèce de plantes à fleurs de la famille des Asteraceae. C'est une espèce endémique du Cap-Vert, qui était autrefois très répandue dans les petites vallées et les zones escarpées des îles de Santo Antão, São Vicente (éteinte), São Nicolau, Fogo,  et Brava. Elle est aujourd'hui menacée.
+Localement elle est connue sous le nom de « marcelinha ».
+En médecine traditionnelle, les feuilles écrasées et humectées sont utilisées comme emplâtre pour soigner les inflammations externes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Erigeron varius Webb
 Nidorella floribunda Lehm.
